--- a/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -218,7 +218,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +239,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +326,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -422,12 +430,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,101 +812,101 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="34" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="32" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="46" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="W1" t="s">
@@ -888,132 +919,132 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+    </row>
+    <row r="3" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+    </row>
+    <row r="4" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="L7" s="11"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1039,79 +1070,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>14</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1132,95 +1163,95 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="46" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="W1" t="s">
@@ -1234,66 +1265,66 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>65</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>40452</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>40409</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>40452</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>40482</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="23">
         <v>1000</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>5</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="25" t="s">
         <v>36</v>
       </c>
       <c r="W2" t="s">
@@ -1307,28 +1338,28 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" t="s">
         <v>41</v>
       </c>
@@ -1340,107 +1371,107 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приложения!$A$1:$V$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Содержание</t>
   </si>
@@ -41,30 +41,18 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>Оплачено</t>
-  </si>
-  <si>
     <t>Вид документа</t>
   </si>
   <si>
     <t>Контрагент</t>
   </si>
   <si>
-    <t>Digital River GmbH</t>
-  </si>
-  <si>
     <t>Сумма</t>
   </si>
   <si>
     <t>Валюта</t>
   </si>
   <si>
-    <t>Евро</t>
-  </si>
-  <si>
-    <t>Исполнен</t>
-  </si>
-  <si>
     <t>№ договора</t>
   </si>
   <si>
@@ -128,18 +116,6 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Загружено частично</t>
-  </si>
-  <si>
-    <t>18.12.2018 15:35:27</t>
-  </si>
-  <si>
-    <t>Не указана группа регистрации в журнале регистрации</t>
-  </si>
-  <si>
-    <t>10-491</t>
-  </si>
-  <si>
     <t>Журнал регистрации</t>
   </si>
   <si>
@@ -149,12 +125,6 @@
     <t>Подробности</t>
   </si>
   <si>
-    <t>Не загружен</t>
-  </si>
-  <si>
-    <t>04.06.2021</t>
-  </si>
-  <si>
     <t>Наша организация</t>
   </si>
   <si>
@@ -164,28 +134,22 @@
     <t>Файл</t>
   </si>
   <si>
-    <t>Наша</t>
-  </si>
-  <si>
     <t>Служба генерального директора</t>
   </si>
   <si>
     <t>C:\Users\starkov_vv\Desktop\DocumentBody\Доп.docx</t>
   </si>
   <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Не найден контрагент "5".</t>
+    <t>НОР</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -218,7 +182,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -424,9 +394,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -459,6 +426,16 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,6 +511,9 @@
       <rgbColor rgb="00F0F0F0"/>
       <rgbColor rgb="00A0A0A0"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFE2EFDA"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -811,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +815,7 @@
     <col min="16" max="16" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="31" customWidth="1"/>
     <col min="20" max="20" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46" style="7" bestFit="1" customWidth="1"/>
@@ -843,35 +823,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="38" t="s">
+      <c r="A1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>45</v>
+      <c r="H1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>1</v>
@@ -880,56 +860,56 @@
         <v>2</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="W1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="33"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="34"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="35"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="6"/>
       <c r="L2" s="22"/>
       <c r="M2" s="23"/>
@@ -949,14 +929,14 @@
     <row r="3" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="33"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="34"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="35"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="6"/>
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
@@ -973,14 +953,14 @@
     <row r="4" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="36"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="34"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="35"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="6"/>
       <c r="L4" s="21"/>
       <c r="M4" s="23"/>
@@ -997,14 +977,14 @@
     <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="34"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="6"/>
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
@@ -1021,14 +1001,14 @@
     <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="6"/>
       <c r="L6" s="21"/>
       <c r="M6" s="23"/>
@@ -1071,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -1085,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1096,10 +1076,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1107,10 +1087,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1118,10 +1098,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,10 +1109,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1140,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1156,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1189,34 +1169,34 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>1</v>
@@ -1225,117 +1205,85 @@
         <v>2</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>38</v>
+      <c r="S1" s="41" t="s">
+        <v>30</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>65</v>
-      </c>
-      <c r="B2" s="6">
-        <v>40452</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6">
-        <v>40409</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="6">
-        <v>40452</v>
-      </c>
-      <c r="L2" s="22">
-        <v>40482</v>
-      </c>
-      <c r="M2" s="23">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="3">
-        <v>5</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1356,19 +1304,13 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="42"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
-      <c r="W3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1389,7 +1331,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="S4" s="42"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
@@ -1416,7 +1358,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="42"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
@@ -1440,7 +1382,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="42"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
@@ -1450,28 +1392,28 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
-    <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
-    <sheet name="Доп.Соглашения" sheetId="5" r:id="rId3"/>
+    <sheet name="Доп.Соглашения" sheetId="5" r:id="rId2"/>
+    <sheet name="Ошибки" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приложения!$A$1:$R$7</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -362,9 +362,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -420,6 +417,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -777,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -797,7 +798,7 @@
     <col min="12" max="12" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="10" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46" style="5" bestFit="1" customWidth="1"/>
@@ -805,10 +806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -817,7 +818,7 @@
       <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -832,7 +833,7 @@
       <c r="I1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="21" t="s">
@@ -847,7 +848,7 @@
       <c r="N1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="21" t="s">
@@ -860,11 +861,11 @@
       <c r="U1"/>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -874,7 +875,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -883,11 +884,11 @@
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -897,17 +898,17 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -917,17 +918,17 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -937,17 +938,17 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -957,7 +958,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
@@ -975,108 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>2</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1035,7 @@
       <c r="I1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="22" t="s">
@@ -1159,10 +1062,10 @@
       <c r="R1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>33</v>
       </c>
       <c r="U1" t="s">
@@ -1177,24 +1080,24 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="28"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="32"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="33"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -1202,24 +1105,24 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="33"/>
+      <c r="S3" s="3"/>
       <c r="T3" s="2"/>
       <c r="U3"/>
       <c r="V3"/>
@@ -1227,24 +1130,24 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="33"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="2"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -1252,58 +1155,58 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="33"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="L7" s="9"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
@@ -1325,139 +1228,237 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T10" s="34"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
     </row>
     <row r="20" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
     </row>
     <row r="21" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T21" s="36"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
     </row>
     <row r="22" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T22" s="36"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Содержание</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Рег. №</t>
+  </si>
+  <si>
+    <t>Дело</t>
+  </si>
+  <si>
+    <t>Дата помещения</t>
   </si>
 </sst>
 </file>
@@ -284,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -422,6 +428,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -778,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -976,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1003,11 +1013,11 @@
     <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="20" max="22" width="13.42578125" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
@@ -1068,17 +1078,23 @@
       <c r="T1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="27"/>
       <c r="C2" s="20"/>
@@ -1099,11 +1115,13 @@
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
       <c r="T2" s="2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="W2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="27"/>
       <c r="C3" s="20"/>
@@ -1124,11 +1142,13 @@
       <c r="R3" s="2"/>
       <c r="S3" s="3"/>
       <c r="T3" s="2"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="27"/>
       <c r="C4" s="20"/>
@@ -1149,11 +1169,13 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="2"/>
-      <c r="U4"/>
-      <c r="V4"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
       <c r="W4"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="27"/>
       <c r="C5" s="20"/>
@@ -1174,8 +1196,10 @@
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="27"/>
       <c r="C6" s="20"/>
@@ -1196,19 +1220,23 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="32"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="L7" s="9"/>
       <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1229,138 +1257,168 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T12" s="33"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
-    </row>
-    <row r="17" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+    </row>
+    <row r="17" spans="20:28" x14ac:dyDescent="0.2">
       <c r="T17" s="33"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
-    </row>
-    <row r="18" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+    </row>
+    <row r="18" spans="20:28" x14ac:dyDescent="0.2">
       <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
-    </row>
-    <row r="19" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+    </row>
+    <row r="19" spans="20:28" x14ac:dyDescent="0.2">
       <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
-    </row>
-    <row r="20" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+    </row>
+    <row r="20" spans="20:28" x14ac:dyDescent="0.2">
       <c r="T20" s="33"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
-    </row>
-    <row r="21" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+    </row>
+    <row r="21" spans="20:28" x14ac:dyDescent="0.2">
       <c r="T21" s="35"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
-    </row>
-    <row r="22" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+    </row>
+    <row r="22" spans="20:28" x14ac:dyDescent="0.2">
       <c r="T22" s="35"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -418,10 +418,6 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -432,6 +428,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -788,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -816,10 +823,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -871,11 +878,11 @@
       <c r="U1"/>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="20"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="40"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -894,11 +901,11 @@
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="20"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -908,17 +915,17 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="41"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="37"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="40"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -934,11 +941,11 @@
       <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="37"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -954,11 +961,11 @@
       <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -988,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -1078,10 +1085,10 @@
       <c r="T1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="41" t="s">
         <v>37</v>
       </c>
       <c r="W1" t="s">
